--- a/ADuser_creator/bin/Debug/Office.xlsx
+++ b/ADuser_creator/bin/Debug/Office.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
   <si>
     <t>Title</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>vbudil</t>
+  </si>
+  <si>
+    <t>_PRAHA,11160_OPTIKA_write</t>
+  </si>
+  <si>
+    <t>11270_data_write,_HRADEC</t>
   </si>
 </sst>
 </file>
@@ -611,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +627,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
@@ -1585,7 +1592,7 @@
         <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>55</v>

--- a/ADuser_creator/bin/Debug/Office.xlsx
+++ b/ADuser_creator/bin/Debug/Office.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="16275" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="16275" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="86">
   <si>
     <t>Title</t>
   </si>
@@ -217,9 +217,6 @@
     <t>alubelcova</t>
   </si>
   <si>
-    <t>recepce_sitel</t>
-  </si>
-  <si>
     <t>mdoudova</t>
   </si>
   <si>
@@ -266,6 +263,18 @@
   </si>
   <si>
     <t>11270_data_write,_HRADEC</t>
+  </si>
+  <si>
+    <t>Pracovnice v kantýně</t>
+  </si>
+  <si>
+    <t>IT správa</t>
+  </si>
+  <si>
+    <t>recepční</t>
+  </si>
+  <si>
+    <t>recepce</t>
   </si>
 </sst>
 </file>
@@ -289,12 +298,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,11 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -617,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +648,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -644,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,7 +676,7 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
@@ -678,7 +694,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
@@ -696,7 +712,7 @@
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
@@ -714,7 +730,7 @@
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
@@ -732,7 +748,7 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -752,7 +768,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -772,7 +788,7 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -792,7 +808,7 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -812,7 +828,7 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -832,7 +848,7 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -852,7 +868,7 @@
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -872,7 +888,7 @@
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -892,7 +908,7 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -912,7 +928,7 @@
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -932,7 +948,7 @@
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -952,7 +968,7 @@
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -972,7 +988,7 @@
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -992,11 +1008,11 @@
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>23</v>
@@ -1012,7 +1028,7 @@
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1032,7 +1048,7 @@
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1052,7 +1068,7 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1072,7 +1088,7 @@
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1092,7 +1108,7 @@
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1112,7 +1128,7 @@
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1132,7 +1148,7 @@
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1152,7 +1168,7 @@
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1172,7 +1188,7 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1192,7 +1208,7 @@
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1212,7 +1228,7 @@
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1232,7 +1248,7 @@
       <c r="C31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1252,7 +1268,7 @@
       <c r="C32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1272,7 +1288,7 @@
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1292,7 +1308,7 @@
       <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1312,7 +1328,7 @@
       <c r="C35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1332,7 +1348,7 @@
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -1352,7 +1368,7 @@
       <c r="C37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -1372,7 +1388,7 @@
       <c r="C38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -1392,7 +1408,7 @@
       <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1412,7 +1428,7 @@
       <c r="C40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1432,7 +1448,7 @@
       <c r="C41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="1"/>
@@ -1450,7 +1466,7 @@
       <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="1"/>
@@ -1468,7 +1484,7 @@
       <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1488,7 +1504,7 @@
       <c r="C44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1508,7 +1524,7 @@
       <c r="C45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -1528,7 +1544,7 @@
       <c r="C46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -1548,7 +1564,7 @@
       <c r="C47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1568,7 +1584,7 @@
       <c r="C48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -1588,11 +1604,11 @@
       <c r="C49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>55</v>
@@ -1608,7 +1624,7 @@
       <c r="C50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -1628,7 +1644,7 @@
       <c r="C51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -1646,7 +1662,7 @@
         <v>15000</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
         <v>55</v>
@@ -1662,7 +1678,7 @@
       <c r="C53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -1682,7 +1698,7 @@
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -1702,7 +1718,7 @@
       <c r="C55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -1720,16 +1736,16 @@
         <v>17120</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1740,16 +1756,16 @@
         <v>19110</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1760,9 +1776,11 @@
         <v>19210</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1778,11 +1796,9 @@
         <v>19400</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="1" t="s">
         <v>6</v>
       </c>
@@ -1798,10 +1814,10 @@
         <v>19400</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -1818,11 +1834,9 @@
         <v>19430</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="1" t="s">
         <v>6</v>
       </c>
@@ -1838,11 +1852,9 @@
         <v>19400</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="1" t="s">
         <v>6</v>
       </c>
@@ -1858,16 +1870,14 @@
         <v>19500</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,9 +1888,9 @@
         <v>88888</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
